--- a/lr1bd/bin/Debug/Риелтор_Excel_Отчет.xlsx
+++ b/lr1bd/bin/Debug/Риелтор_Excel_Отчет.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="DG1" sheetId="1" r:id="rId1"/>
-    <sheet name="DG2" sheetId="2" r:id="rId2"/>
-    <sheet name="DG3" sheetId="3" r:id="rId3"/>
+    <sheet name="Дом" sheetId="1" r:id="rId1"/>
+    <sheet name="Квартиры" sheetId="2" r:id="rId2"/>
+    <sheet name="Комнаты" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>kadastr</t>
   </si>
@@ -55,37 +55,40 @@
     <t>unique_order_number</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Северный</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>Дерево</t>
-  </si>
-  <si>
-    <t>2004</t>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Центральный</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Кирпич</t>
+  </si>
+  <si>
+    <t>1999</t>
   </si>
   <si>
     <t>Прочный</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>1200</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>6</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t/>
@@ -112,64 +115,55 @@
     <t>Kadastr</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>razmery</t>
+  </si>
+  <si>
+    <t>room_type</t>
+  </si>
+  <si>
+    <t>room_material</t>
+  </si>
+  <si>
+    <t>room_height</t>
+  </si>
+  <si>
+    <t>socket_number</t>
+  </si>
+  <si>
+    <t>battery_number</t>
+  </si>
+  <si>
+    <t>apartment_number</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>5x8x5</t>
+  </si>
+  <si>
+    <t>Студия</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>razmery</t>
-  </si>
-  <si>
-    <t>room_type</t>
-  </si>
-  <si>
-    <t>room_material</t>
-  </si>
-  <si>
-    <t>room_height</t>
-  </si>
-  <si>
-    <t>socket_number</t>
-  </si>
-  <si>
-    <t>battery_number</t>
-  </si>
-  <si>
-    <t>apartment_number</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>2.2x3x5</t>
-  </si>
-  <si>
-    <t>Кухня</t>
-  </si>
-  <si>
-    <t>Кирпич</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>3x5x3.4</t>
-  </si>
-  <si>
-    <t>Гостинная</t>
-  </si>
-  <si>
-    <t>1.7</t>
   </si>
 </sst>
 </file>
@@ -308,48 +302,48 @@
         <v>22</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -367,45 +361,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>13</v>
@@ -413,25 +407,25 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -441,7 +435,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,118 +443,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
